--- a/stage_2/Lookup_Functions (Part 2)/Lookup_functions (Part 2).xlsx
+++ b/stage_2/Lookup_Functions (Part 2)/Lookup_functions (Part 2).xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Lookup_Functions (Part 2)\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BACDCE-979C-4F75-BA11-A52CB43954A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,151 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+  <si>
+    <t>Employee ID</t>
+  </si>
+  <si>
+    <t>Employee Name</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Score Q1</t>
+  </si>
+  <si>
+    <t>Score Q2</t>
+  </si>
+  <si>
+    <t>Score Q3</t>
+  </si>
+  <si>
+    <t>Score Q4</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>E101</t>
+  </si>
+  <si>
+    <t>Ada Lovelace</t>
+  </si>
+  <si>
+    <t>Data Science</t>
+  </si>
+  <si>
+    <t>Lagos</t>
+  </si>
+  <si>
+    <t>Analyst</t>
+  </si>
+  <si>
+    <t>E102</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Abuja</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>E103</t>
+  </si>
+  <si>
+    <t>Mary Ann</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Port Harcourt</t>
+  </si>
+  <si>
+    <t>Specialist</t>
+  </si>
+  <si>
+    <t>E104</t>
+  </si>
+  <si>
+    <t>Femi Ade</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Executive</t>
+  </si>
+  <si>
+    <t>E105</t>
+  </si>
+  <si>
+    <t>Zainab Umar</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Accountant</t>
+  </si>
+  <si>
+    <t>E106</t>
+  </si>
+  <si>
+    <t>Obinna Okafor</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Engineer</t>
+  </si>
+  <si>
+    <t>E107</t>
+  </si>
+  <si>
+    <t>Amina Bello</t>
+  </si>
+  <si>
+    <t>Kaduna</t>
+  </si>
+  <si>
+    <t>E108</t>
+  </si>
+  <si>
+    <t>Samuel Adeyemi</t>
+  </si>
+  <si>
+    <t>E109</t>
+  </si>
+  <si>
+    <t>Blessing Olatunde</t>
+  </si>
+  <si>
+    <t>E110</t>
+  </si>
+  <si>
+    <t>Chidera Nwosu</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +479,368 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:J11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>82</v>
+      </c>
+      <c r="G2">
+        <v>88</v>
+      </c>
+      <c r="H2">
+        <v>85</v>
+      </c>
+      <c r="I2">
+        <v>91</v>
+      </c>
+      <c r="J2">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3">
+        <v>75</v>
+      </c>
+      <c r="G3">
+        <v>70</v>
+      </c>
+      <c r="H3">
+        <v>68</v>
+      </c>
+      <c r="I3">
+        <v>72</v>
+      </c>
+      <c r="J3">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4">
+        <v>90</v>
+      </c>
+      <c r="G4">
+        <v>87</v>
+      </c>
+      <c r="H4">
+        <v>91</v>
+      </c>
+      <c r="I4">
+        <v>89</v>
+      </c>
+      <c r="J4">
+        <v>270000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5">
+        <v>65</v>
+      </c>
+      <c r="G5">
+        <v>72</v>
+      </c>
+      <c r="H5">
+        <v>77</v>
+      </c>
+      <c r="I5">
+        <v>70</v>
+      </c>
+      <c r="J5">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6">
+        <v>88</v>
+      </c>
+      <c r="G6">
+        <v>91</v>
+      </c>
+      <c r="H6">
+        <v>90</v>
+      </c>
+      <c r="I6">
+        <v>92</v>
+      </c>
+      <c r="J6">
+        <v>280000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7">
+        <v>78</v>
+      </c>
+      <c r="G7">
+        <v>83</v>
+      </c>
+      <c r="H7">
+        <v>85</v>
+      </c>
+      <c r="I7">
+        <v>88</v>
+      </c>
+      <c r="J7">
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8">
+        <v>81</v>
+      </c>
+      <c r="G8">
+        <v>84</v>
+      </c>
+      <c r="H8">
+        <v>88</v>
+      </c>
+      <c r="I8">
+        <v>86</v>
+      </c>
+      <c r="J8">
+        <v>295000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9">
+        <v>73</v>
+      </c>
+      <c r="G9">
+        <v>76</v>
+      </c>
+      <c r="H9">
+        <v>78</v>
+      </c>
+      <c r="I9">
+        <v>80</v>
+      </c>
+      <c r="J9">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10">
+        <v>85</v>
+      </c>
+      <c r="G10">
+        <v>87</v>
+      </c>
+      <c r="H10">
+        <v>89</v>
+      </c>
+      <c r="I10">
+        <v>92</v>
+      </c>
+      <c r="J10">
+        <v>275000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11">
+        <v>90</v>
+      </c>
+      <c r="G11">
+        <v>93</v>
+      </c>
+      <c r="H11">
+        <v>95</v>
+      </c>
+      <c r="I11">
+        <v>97</v>
+      </c>
+      <c r="J11">
+        <v>310000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/stage_2/Lookup_Functions (Part 2)/Lookup_functions (Part 2).xlsx
+++ b/stage_2/Lookup_Functions (Part 2)/Lookup_functions (Part 2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Lookup_Functions (Part 2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BACDCE-979C-4F75-BA11-A52CB43954A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63546D75-9E48-40AC-868B-CD3AA16A9225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,8 +169,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -198,8 +206,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,40 +494,45 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J11"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -842,5 +858,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/stage_2/Lookup_Functions (Part 2)/Lookup_functions (Part 2).xlsx
+++ b/stage_2/Lookup_Functions (Part 2)/Lookup_functions (Part 2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Lookup_Functions (Part 2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63546D75-9E48-40AC-868B-CD3AA16A9225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B91AE8-F04B-4C72-9E0C-F9E379CA54AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,41 +25,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Employee ID</t>
   </si>
   <si>
-    <t>Employee Name</t>
-  </si>
-  <si>
     <t>Department</t>
   </si>
   <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>Score Q1</t>
-  </si>
-  <si>
-    <t>Score Q2</t>
-  </si>
-  <si>
-    <t>Score Q3</t>
-  </si>
-  <si>
-    <t>Score Q4</t>
-  </si>
-  <si>
-    <t>Salary</t>
-  </si>
-  <si>
-    <t>E101</t>
-  </si>
-  <si>
     <t>Ada Lovelace</t>
   </si>
   <si>
@@ -69,12 +42,6 @@
     <t>Lagos</t>
   </si>
   <si>
-    <t>Analyst</t>
-  </si>
-  <si>
-    <t>E102</t>
-  </si>
-  <si>
     <t>John Doe</t>
   </si>
   <si>
@@ -84,12 +51,6 @@
     <t>Abuja</t>
   </si>
   <si>
-    <t>Manager</t>
-  </si>
-  <si>
-    <t>E103</t>
-  </si>
-  <si>
     <t>Mary Ann</t>
   </si>
   <si>
@@ -99,70 +60,43 @@
     <t>Port Harcourt</t>
   </si>
   <si>
-    <t>Specialist</t>
-  </si>
-  <si>
-    <t>E104</t>
-  </si>
-  <si>
     <t>Femi Ade</t>
   </si>
   <si>
-    <t>Sales</t>
-  </si>
-  <si>
-    <t>Executive</t>
-  </si>
-  <si>
-    <t>E105</t>
-  </si>
-  <si>
-    <t>Zainab Umar</t>
-  </si>
-  <si>
     <t>Finance</t>
   </si>
   <si>
-    <t>Accountant</t>
-  </si>
-  <si>
-    <t>E106</t>
-  </si>
-  <si>
-    <t>Obinna Okafor</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>Engineer</t>
-  </si>
-  <si>
-    <t>E107</t>
-  </si>
-  <si>
     <t>Amina Bello</t>
   </si>
   <si>
     <t>Kaduna</t>
   </si>
   <si>
-    <t>E108</t>
-  </si>
-  <si>
-    <t>Samuel Adeyemi</t>
-  </si>
-  <si>
-    <t>E109</t>
-  </si>
-  <si>
-    <t>Blessing Olatunde</t>
-  </si>
-  <si>
-    <t>E110</t>
-  </si>
-  <si>
-    <t>Chidera Nwosu</t>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Salary (₦)</t>
+  </si>
+  <si>
+    <t>E001</t>
+  </si>
+  <si>
+    <t>E002</t>
+  </si>
+  <si>
+    <t>E003</t>
+  </si>
+  <si>
+    <t>E004</t>
+  </si>
+  <si>
+    <t>E005</t>
+  </si>
+  <si>
+    <t>Product Design</t>
   </si>
 </sst>
 </file>
@@ -491,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -504,356 +438,106 @@
     <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E2">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
+      <c r="E3">
+        <v>290000</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2">
-        <v>82</v>
-      </c>
-      <c r="G2">
-        <v>88</v>
-      </c>
-      <c r="H2">
-        <v>85</v>
-      </c>
-      <c r="I2">
-        <v>91</v>
-      </c>
-      <c r="J2">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3">
-        <v>75</v>
-      </c>
-      <c r="G3">
-        <v>70</v>
-      </c>
-      <c r="H3">
-        <v>68</v>
-      </c>
-      <c r="I3">
-        <v>72</v>
-      </c>
-      <c r="J3">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>310000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>420000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4">
-        <v>90</v>
-      </c>
-      <c r="G4">
-        <v>87</v>
-      </c>
-      <c r="H4">
-        <v>91</v>
-      </c>
-      <c r="I4">
-        <v>89</v>
-      </c>
-      <c r="J4">
-        <v>270000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5">
-        <v>65</v>
-      </c>
-      <c r="G5">
-        <v>72</v>
-      </c>
-      <c r="H5">
-        <v>77</v>
-      </c>
-      <c r="I5">
-        <v>70</v>
-      </c>
-      <c r="J5">
-        <v>220000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
       <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6">
-        <v>88</v>
-      </c>
-      <c r="G6">
-        <v>91</v>
-      </c>
-      <c r="H6">
-        <v>90</v>
-      </c>
-      <c r="I6">
-        <v>92</v>
-      </c>
-      <c r="J6">
-        <v>280000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7">
-        <v>78</v>
-      </c>
-      <c r="G7">
-        <v>83</v>
-      </c>
-      <c r="H7">
-        <v>85</v>
-      </c>
-      <c r="I7">
-        <v>88</v>
-      </c>
-      <c r="J7">
-        <v>260000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8">
-        <v>81</v>
-      </c>
-      <c r="G8">
-        <v>84</v>
-      </c>
-      <c r="H8">
-        <v>88</v>
-      </c>
-      <c r="I8">
-        <v>86</v>
-      </c>
-      <c r="J8">
-        <v>295000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9">
-        <v>73</v>
-      </c>
-      <c r="G9">
-        <v>76</v>
-      </c>
-      <c r="H9">
-        <v>78</v>
-      </c>
-      <c r="I9">
-        <v>80</v>
-      </c>
-      <c r="J9">
-        <v>230000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10">
-        <v>85</v>
-      </c>
-      <c r="G10">
-        <v>87</v>
-      </c>
-      <c r="H10">
-        <v>89</v>
-      </c>
-      <c r="I10">
-        <v>92</v>
-      </c>
-      <c r="J10">
-        <v>275000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
         <v>14</v>
       </c>
-      <c r="F11">
-        <v>90</v>
-      </c>
-      <c r="G11">
-        <v>93</v>
-      </c>
-      <c r="H11">
-        <v>95</v>
-      </c>
-      <c r="I11">
-        <v>97</v>
-      </c>
-      <c r="J11">
-        <v>310000</v>
+      <c r="E6">
+        <v>350000</v>
       </c>
     </row>
   </sheetData>

--- a/stage_2/Lookup_Functions (Part 2)/Lookup_functions (Part 2).xlsx
+++ b/stage_2/Lookup_Functions (Part 2)/Lookup_functions (Part 2).xlsx
@@ -8,17 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Lookup_Functions (Part 2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B91AE8-F04B-4C72-9E0C-F9E379CA54AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9094C08B-DE27-4F7C-9773-A2F0AD9F48C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -425,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -540,6 +549,12 @@
         <v>350000</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="str">
+        <f xml:space="preserve"> INDEX(B2:B6, 3)</f>
+        <v>Mary Ann</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/stage_2/Lookup_Functions (Part 2)/Lookup_functions (Part 2).xlsx
+++ b/stage_2/Lookup_Functions (Part 2)/Lookup_functions (Part 2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Lookup_Functions (Part 2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9094C08B-DE27-4F7C-9773-A2F0AD9F48C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DFA672-6DC9-4122-B160-57628748B931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Employee ID</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>Product Design</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Match</t>
   </si>
 </sst>
 </file>
@@ -437,7 +443,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -549,6 +555,14 @@
         <v>350000</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f xml:space="preserve"> INDEX(B2:B6, 3)</f>

--- a/stage_2/Lookup_Functions (Part 2)/Lookup_functions (Part 2).xlsx
+++ b/stage_2/Lookup_Functions (Part 2)/Lookup_functions (Part 2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Lookup_Functions (Part 2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DFA672-6DC9-4122-B160-57628748B931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7ADCA3D-4342-4C02-A849-A8E354951AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Employee ID</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Match</t>
+  </si>
+  <si>
+    <t>Both</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -562,11 +565,18 @@
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f xml:space="preserve"> INDEX(B2:B6, 3)</f>
         <v>Mary Ann</v>
+      </c>
+      <c r="B10">
+        <f xml:space="preserve"> MATCH("Mary Ann", B2:B6, 0)</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/stage_2/Lookup_Functions (Part 2)/Lookup_functions (Part 2).xlsx
+++ b/stage_2/Lookup_Functions (Part 2)/Lookup_functions (Part 2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Lookup_Functions (Part 2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7ADCA3D-4342-4C02-A849-A8E354951AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C4B16D-723E-4C79-8D81-90E4A9EECD70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Employee ID</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Both</t>
+  </si>
+  <si>
+    <t>Find Mary Ann’s salary</t>
   </si>
 </sst>
 </file>
@@ -443,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -579,6 +582,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/stage_2/Lookup_Functions (Part 2)/Lookup_functions (Part 2).xlsx
+++ b/stage_2/Lookup_Functions (Part 2)/Lookup_functions (Part 2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Lookup_Functions (Part 2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C4B16D-723E-4C79-8D81-90E4A9EECD70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D071BEC-7970-405F-8561-9F1246E18A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -161,8 +161,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -449,7 +452,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -583,11 +586,15 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="B12" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A12:B12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/stage_2/Lookup_Functions (Part 2)/Lookup_functions (Part 2).xlsx
+++ b/stage_2/Lookup_Functions (Part 2)/Lookup_functions (Part 2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Lookup_Functions (Part 2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D071BEC-7970-405F-8561-9F1246E18A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F065F14-3658-4589-86BB-69CD0B036D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -452,7 +452,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -590,6 +590,10 @@
         <v>27</v>
       </c>
       <c r="B12" s="2"/>
+      <c r="C12">
+        <f xml:space="preserve"> INDEX(E2:E6, MATCH("Mary Ann", B2:B6, 0))</f>
+        <v>310000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/stage_2/Lookup_Functions (Part 2)/Lookup_functions (Part 2).xlsx
+++ b/stage_2/Lookup_Functions (Part 2)/Lookup_functions (Part 2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Lookup_Functions (Part 2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F065F14-3658-4589-86BB-69CD0B036D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B32960-1C7C-4448-B1C9-3A23835381F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,7 +124,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,19 +169,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -452,7 +466,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -460,6 +474,7 @@
     <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -492,7 +507,7 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>380000</v>
       </c>
     </row>
@@ -509,7 +524,7 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>290000</v>
       </c>
     </row>
@@ -526,7 +541,7 @@
       <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>310000</v>
       </c>
     </row>
@@ -543,7 +558,7 @@
       <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>420000</v>
       </c>
     </row>
@@ -560,7 +575,7 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>350000</v>
       </c>
     </row>

--- a/stage_2/Lookup_Functions (Part 2)/Lookup_functions (Part 2).xlsx
+++ b/stage_2/Lookup_Functions (Part 2)/Lookup_functions (Part 2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Lookup_Functions (Part 2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B32960-1C7C-4448-B1C9-3A23835381F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6590558-CCA5-41F9-83D5-FC1DB4559BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -466,7 +466,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -605,7 +605,7 @@
         <v>27</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12">
+      <c r="C12" s="3">
         <f xml:space="preserve"> INDEX(E2:E6, MATCH("Mary Ann", B2:B6, 0))</f>
         <v>310000</v>
       </c>

--- a/stage_2/Lookup_Functions (Part 2)/Lookup_functions (Part 2).xlsx
+++ b/stage_2/Lookup_Functions (Part 2)/Lookup_functions (Part 2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Lookup_Functions (Part 2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6590558-CCA5-41F9-83D5-FC1DB4559BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED040FC-AC3E-4C04-94FE-2C2EC4AD5906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>Employee ID</t>
   </si>
@@ -118,6 +118,18 @@
   </si>
   <si>
     <t>Find Mary Ann’s salary</t>
+  </si>
+  <si>
+    <t>Q1 Sales</t>
+  </si>
+  <si>
+    <t>Q2 Sales</t>
+  </si>
+  <si>
+    <t>Q3 Sales</t>
+  </si>
+  <si>
+    <t>Q4 Sales</t>
   </si>
 </sst>
 </file>
@@ -463,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -475,9 +487,10 @@
     <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,8 +506,23 @@
       <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -510,8 +538,23 @@
       <c r="E2" s="3">
         <v>380000</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>250000</v>
+      </c>
+      <c r="I2">
+        <v>270000</v>
+      </c>
+      <c r="J2">
+        <v>290000</v>
+      </c>
+      <c r="K2">
+        <v>310000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -527,8 +570,23 @@
       <c r="E3" s="3">
         <v>290000</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3">
+        <v>300000</v>
+      </c>
+      <c r="I3">
+        <v>320000</v>
+      </c>
+      <c r="J3">
+        <v>340000</v>
+      </c>
+      <c r="K3">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -544,8 +602,23 @@
       <c r="E4" s="3">
         <v>310000</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>200000</v>
+      </c>
+      <c r="I4">
+        <v>220000</v>
+      </c>
+      <c r="J4">
+        <v>250000</v>
+      </c>
+      <c r="K4">
+        <v>280000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -561,8 +634,23 @@
       <c r="E5" s="3">
         <v>420000</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <v>180000</v>
+      </c>
+      <c r="I5">
+        <v>190000</v>
+      </c>
+      <c r="J5">
+        <v>210000</v>
+      </c>
+      <c r="K5">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -579,7 +667,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -590,7 +678,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f xml:space="preserve"> INDEX(B2:B6, 3)</f>
         <v>Mary Ann</v>
@@ -600,7 +688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>

--- a/stage_2/Lookup_Functions (Part 2)/Lookup_functions (Part 2).xlsx
+++ b/stage_2/Lookup_Functions (Part 2)/Lookup_functions (Part 2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Lookup_Functions (Part 2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED040FC-AC3E-4C04-94FE-2C2EC4AD5906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1066B4B2-1A2E-43BD-B30A-1E9951B12547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -478,7 +478,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -687,6 +687,10 @@
         <f xml:space="preserve"> MATCH("Mary Ann", B2:B6, 0)</f>
         <v>3</v>
       </c>
+      <c r="G10">
+        <f xml:space="preserve"> INDEX(J2:J5, MATCH("Finance", G2:G5, 0))</f>
+        <v>340000</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">

--- a/stage_2/Lookup_Functions (Part 2)/Lookup_functions (Part 2).xlsx
+++ b/stage_2/Lookup_Functions (Part 2)/Lookup_functions (Part 2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Lookup_Functions (Part 2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1066B4B2-1A2E-43BD-B30A-1E9951B12547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC45637-06D0-4662-BDFF-2B3E2FC797F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -478,7 +478,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -488,6 +488,7 @@
     <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.08984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="11.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -541,16 +542,16 @@
       <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>250000</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>270000</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>290000</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>310000</v>
       </c>
     </row>
@@ -573,16 +574,16 @@
       <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>300000</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>320000</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>340000</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <v>350000</v>
       </c>
     </row>
@@ -605,16 +606,16 @@
       <c r="G4" t="s">
         <v>3</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>200000</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>220000</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>250000</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>280000</v>
       </c>
     </row>
@@ -637,16 +638,16 @@
       <c r="G5" t="s">
         <v>9</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>180000</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>190000</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>210000</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>230000</v>
       </c>
     </row>
@@ -687,7 +688,7 @@
         <f xml:space="preserve"> MATCH("Mary Ann", B2:B6, 0)</f>
         <v>3</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <f xml:space="preserve"> INDEX(J2:J5, MATCH("Finance", G2:G5, 0))</f>
         <v>340000</v>
       </c>

--- a/stage_2/Lookup_Functions (Part 2)/Lookup_functions (Part 2).xlsx
+++ b/stage_2/Lookup_Functions (Part 2)/Lookup_functions (Part 2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Lookup_Functions (Part 2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC45637-06D0-4662-BDFF-2B3E2FC797F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E14060-9B00-4DDC-8675-18E528CA6273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>Employee ID</t>
   </si>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>Match</t>
-  </si>
-  <si>
-    <t>Both</t>
   </si>
   <si>
     <t>Find Mary Ann’s salary</t>
@@ -478,7 +475,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -511,16 +508,16 @@
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -674,9 +671,6 @@
       </c>
       <c r="B9" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -695,7 +689,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3">

--- a/stage_2/Lookup_Functions (Part 2)/Lookup_functions (Part 2).xlsx
+++ b/stage_2/Lookup_Functions (Part 2)/Lookup_functions (Part 2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Lookup_Functions (Part 2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E14060-9B00-4DDC-8675-18E528CA6273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9373D498-36E7-4877-9727-03E1DD30ACD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>Employee ID</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>Q4 Sales</t>
+  </si>
+  <si>
+    <t>Find the Q3 Sales for Finance</t>
   </si>
 </sst>
 </file>
@@ -475,7 +478,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -665,6 +668,11 @@
         <v>350000</v>
       </c>
     </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+    </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>24</v>
@@ -682,10 +690,7 @@
         <f xml:space="preserve"> MATCH("Mary Ann", B2:B6, 0)</f>
         <v>3</v>
       </c>
-      <c r="G10" s="3">
-        <f xml:space="preserve"> INDEX(J2:J5, MATCH("Finance", G2:G5, 0))</f>
-        <v>340000</v>
-      </c>
+      <c r="G10" s="3"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">

--- a/stage_2/Lookup_Functions (Part 2)/Lookup_functions (Part 2).xlsx
+++ b/stage_2/Lookup_Functions (Part 2)/Lookup_functions (Part 2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Lookup_Functions (Part 2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9373D498-36E7-4877-9727-03E1DD30ACD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C3559A-4125-4173-8F72-F7720EA02350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -478,7 +478,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G8" sqref="G8:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -669,9 +669,11 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G8" t="s">
+      <c r="G8" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
@@ -703,8 +705,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/stage_2/Lookup_Functions (Part 2)/Lookup_functions (Part 2).xlsx
+++ b/stage_2/Lookup_Functions (Part 2)/Lookup_functions (Part 2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Lookup_Functions (Part 2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C3559A-4125-4173-8F72-F7720EA02350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A82C67E-B9F6-4130-85AF-7C558B7F8420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -478,7 +478,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:I8"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -674,6 +674,10 @@
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
+      <c r="J8" s="3">
+        <f xml:space="preserve"> INDEX(G2:K5, MATCH("Finance", G2:G5, 0), MATCH("Q3 Sales", G1:K1, 0))</f>
+        <v>340000</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">

--- a/stage_2/Lookup_Functions (Part 2)/Lookup_functions (Part 2).xlsx
+++ b/stage_2/Lookup_Functions (Part 2)/Lookup_functions (Part 2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Lookup_Functions (Part 2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A82C67E-B9F6-4130-85AF-7C558B7F8420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BD1AF2-DB0A-4AD9-89D2-6BD33DA0ADC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>Employee ID</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>Find the Q3 Sales for Finance</t>
+  </si>
+  <si>
+    <t>XLOOKUP</t>
   </si>
 </sst>
 </file>
@@ -185,8 +188,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -478,7 +482,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -491,35 +495,35 @@
     <col min="8" max="11" width="11.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -536,22 +540,22 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <v>380000</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="4">
         <v>250000</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="4">
         <v>270000</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="4">
         <v>290000</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="4">
         <v>310000</v>
       </c>
     </row>
@@ -568,22 +572,22 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <v>290000</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="4">
         <v>300000</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="4">
         <v>320000</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="4">
         <v>340000</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="4">
         <v>350000</v>
       </c>
     </row>
@@ -600,22 +604,22 @@
       <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>310000</v>
       </c>
       <c r="G4" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="4">
         <v>200000</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="4">
         <v>220000</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="4">
         <v>250000</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="4">
         <v>280000</v>
       </c>
     </row>
@@ -632,22 +636,22 @@
       <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>420000</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="4">
         <v>180000</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="4">
         <v>190000</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="4">
         <v>210000</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="4">
         <v>230000</v>
       </c>
     </row>
@@ -664,26 +668,26 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>350000</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="3">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="4">
         <f xml:space="preserve"> INDEX(G2:K5, MATCH("Finance", G2:G5, 0), MATCH("Q3 Sales", G1:K1, 0))</f>
         <v>340000</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -696,15 +700,24 @@
         <f xml:space="preserve"> MATCH("Mary Ann", B2:B6, 0)</f>
         <v>3</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G11" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3">
+      <c r="B12" s="3"/>
+      <c r="C12" s="4">
         <f xml:space="preserve"> INDEX(E2:E6, MATCH("Mary Ann", B2:B6, 0))</f>
+        <v>310000</v>
+      </c>
+      <c r="G12">
+        <f>_xlfn.XLOOKUP("Mary Ann", B2:B6, E2:E6, "Not Found")</f>
         <v>310000</v>
       </c>
     </row>

--- a/stage_2/Lookup_Functions (Part 2)/Lookup_functions (Part 2).xlsx
+++ b/stage_2/Lookup_Functions (Part 2)/Lookup_functions (Part 2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Lookup_Functions (Part 2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BD1AF2-DB0A-4AD9-89D2-6BD33DA0ADC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B7EB98-2DCC-4865-B5E1-DBDEB410ECC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -482,7 +482,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -716,7 +716,7 @@
         <f xml:space="preserve"> INDEX(E2:E6, MATCH("Mary Ann", B2:B6, 0))</f>
         <v>310000</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="4">
         <f>_xlfn.XLOOKUP("Mary Ann", B2:B6, E2:E6, "Not Found")</f>
         <v>310000</v>
       </c>

--- a/stage_2/Lookup_Functions (Part 2)/Lookup_functions (Part 2).xlsx
+++ b/stage_2/Lookup_Functions (Part 2)/Lookup_functions (Part 2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Lookup_Functions (Part 2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B7EB98-2DCC-4865-B5E1-DBDEB410ECC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC787DD-160A-4492-B85D-22BEF6F7FBCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>Employee ID</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>XLOOKUP</t>
+  </si>
+  <si>
+    <t>Two-way with XLOOKUP</t>
+  </si>
+  <si>
+    <t>Two-way with INDEX &amp; MATCH</t>
   </si>
 </sst>
 </file>
@@ -482,7 +488,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -672,6 +678,11 @@
         <v>350000</v>
       </c>
     </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G8" s="3" t="s">
         <v>31</v>
@@ -705,6 +716,9 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G11" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">

--- a/stage_2/Lookup_Functions (Part 2)/Lookup_functions (Part 2).xlsx
+++ b/stage_2/Lookup_Functions (Part 2)/Lookup_functions (Part 2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Lookup_Functions (Part 2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC787DD-160A-4492-B85D-22BEF6F7FBCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5876907-AA42-4752-9D15-BAA3E0ABA5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,6 +31,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -488,7 +510,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -734,6 +756,10 @@
         <f>_xlfn.XLOOKUP("Mary Ann", B2:B6, E2:E6, "Not Found")</f>
         <v>310000</v>
       </c>
+      <c r="I12" cm="1">
+        <f t="array" ref="I12" xml:space="preserve"> _xlfn.XLOOKUP("Finance", G2:G5, _xlfn.XLOOKUP("Q3 Sales", G1:K1, G2:K5))</f>
+        <v>340000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/stage_2/Lookup_Functions (Part 2)/Lookup_functions (Part 2).xlsx
+++ b/stage_2/Lookup_Functions (Part 2)/Lookup_functions (Part 2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Lookup_Functions (Part 2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5876907-AA42-4752-9D15-BAA3E0ABA5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964F2063-5A59-401B-A0F0-71C4E6030119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -510,7 +510,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -756,7 +756,7 @@
         <f>_xlfn.XLOOKUP("Mary Ann", B2:B6, E2:E6, "Not Found")</f>
         <v>310000</v>
       </c>
-      <c r="I12" cm="1">
+      <c r="I12" s="4" cm="1">
         <f t="array" ref="I12" xml:space="preserve"> _xlfn.XLOOKUP("Finance", G2:G5, _xlfn.XLOOKUP("Q3 Sales", G1:K1, G2:K5))</f>
         <v>340000</v>
       </c>

--- a/stage_2/Lookup_Functions (Part 2)/Lookup_functions (Part 2).xlsx
+++ b/stage_2/Lookup_Functions (Part 2)/Lookup_functions (Part 2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Lookup_Functions (Part 2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964F2063-5A59-401B-A0F0-71C4E6030119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC78887-DB14-447D-8410-F73242DF7B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -518,6 +518,7 @@
     <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.08984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="11.08984375" bestFit="1" customWidth="1"/>

--- a/stage_2/Lookup_Functions (Part 2)/Lookup_functions (Part 2).xlsx
+++ b/stage_2/Lookup_Functions (Part 2)/Lookup_functions (Part 2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Lookup_Functions (Part 2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC78887-DB14-447D-8410-F73242DF7B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68719A5B-E7BA-4702-8A1D-D25F93CAF5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>Employee ID</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>Two-way with INDEX &amp; MATCH</t>
+  </si>
+  <si>
+    <t>CHOOSE</t>
   </si>
 </sst>
 </file>
@@ -507,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -762,6 +765,16 @@
         <v>340000</v>
       </c>
     </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A12:B12"/>

--- a/stage_2/Lookup_Functions (Part 2)/Lookup_functions (Part 2).xlsx
+++ b/stage_2/Lookup_Functions (Part 2)/Lookup_functions (Part 2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Lookup_Functions (Part 2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68719A5B-E7BA-4702-8A1D-D25F93CAF5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6811A5-DAD4-4FA6-8B03-9B42DD61A7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>Employee ID</t>
   </si>
@@ -513,7 +513,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -771,8 +771,9 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>35</v>
+      <c r="A15" t="str">
+        <f>CHOOSE(2, "Lagos", "Abuja", "Kaduna")</f>
+        <v>Abuja</v>
       </c>
     </row>
   </sheetData>

--- a/stage_2/Lookup_Functions (Part 2)/Lookup_functions (Part 2).xlsx
+++ b/stage_2/Lookup_Functions (Part 2)/Lookup_functions (Part 2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Lookup_Functions (Part 2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6811A5-DAD4-4FA6-8B03-9B42DD61A7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D619C717-65A9-4299-8901-C5127191AF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>Employee ID</t>
   </si>
@@ -164,6 +164,12 @@
   </si>
   <si>
     <t>CHOOSE</t>
+  </si>
+  <si>
+    <t>OFFSET</t>
+  </si>
+  <si>
+    <t>VLOOKUP + CHOOSE</t>
   </si>
 </sst>
 </file>
@@ -510,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -769,17 +775,37 @@
       <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f>CHOOSE(2, "Lagos", "Abuja", "Kaduna")</f>
         <v>Abuja</v>
       </c>
+      <c r="B15" s="4">
+        <f ca="1" xml:space="preserve"> OFFSET(B2, 0, 3)</f>
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G17" s="4">
+        <f>VLOOKUP("Ada Lovelace", CHOOSE({1,2}, B2:B6, E2:E11), 2, FALSE)</f>
+        <v>380000</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G16:H16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
